--- a/data/trans_dic/P23_1_2016_2023_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R-Habitat-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3338611676095604</v>
+        <v>0.3340109672870744</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2457793472095444</v>
+        <v>0.2445299534580368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2177500585186067</v>
+        <v>0.2198333742677101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1545408174628461</v>
+        <v>0.1561539644858853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2881149179878671</v>
+        <v>0.2871035863442687</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2055596425878323</v>
+        <v>0.2060339665429268</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4114474555116718</v>
+        <v>0.4085643038966584</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3187235380284512</v>
+        <v>0.3192272996591443</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2868677096581573</v>
+        <v>0.2871059157912224</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2052129269597058</v>
+        <v>0.2078407697722825</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3368518341123359</v>
+        <v>0.3363225304209573</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2488018347836723</v>
+        <v>0.2513819456681215</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2985227076189479</v>
+        <v>0.2976538716652484</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2132020343073754</v>
+        <v>0.2116498777028213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2324596907240454</v>
+        <v>0.23276725233721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1650800115502632</v>
+        <v>0.1620259233130529</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2735217596021586</v>
+        <v>0.2716384058951963</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1960244862147283</v>
+        <v>0.1941624932273185</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3584036007419799</v>
+        <v>0.3592089198489611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2727636746318916</v>
+        <v>0.2751209815650689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2883962436804103</v>
+        <v>0.2879729815847988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2066499472826346</v>
+        <v>0.2075224751136088</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3154505207459227</v>
+        <v>0.3127453146415384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2329742969596424</v>
+        <v>0.2322152047476772</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3710322055630618</v>
+        <v>0.3736009048118401</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2289362076932956</v>
+        <v>0.2341233869228812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2562588977824102</v>
+        <v>0.2563168393973038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1873617561465688</v>
+        <v>0.1885412771693547</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3200284333769179</v>
+        <v>0.322232402950316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2168538423980503</v>
+        <v>0.2168769677735468</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4435159023515199</v>
+        <v>0.4452239952036673</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3057428512669647</v>
+        <v>0.3072724949924867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3197614624964526</v>
+        <v>0.3178779248988568</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.242793001712303</v>
+        <v>0.2428822558853596</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3714614381287391</v>
+        <v>0.3740795049785521</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2639981191488283</v>
+        <v>0.2647133801087358</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.24689271458939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1861440645094473</v>
+        <v>0.1861440645094474</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2723006990549374</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2713095092360451</v>
+        <v>0.2718674500941272</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2140303787052835</v>
+        <v>0.2145251992062417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2188697697761981</v>
+        <v>0.2221102519082762</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1659969660105539</v>
+        <v>0.1662943981656577</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2498258273541775</v>
+        <v>0.2509157240964967</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1972299573443135</v>
+        <v>0.1954680097473459</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3296711581628481</v>
+        <v>0.3321860138985115</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2703053102964267</v>
+        <v>0.2696340247043757</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2767488012029409</v>
+        <v>0.277146288713232</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2064103067570357</v>
+        <v>0.206381657567166</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2915521852703119</v>
+        <v>0.2933176788737412</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2314533558555638</v>
+        <v>0.2316786942221715</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>225290</v>
+        <v>225391</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>169496</v>
+        <v>168635</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>146269</v>
+        <v>147669</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>113296</v>
+        <v>114479</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>387955</v>
+        <v>386594</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>292458</v>
+        <v>293133</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>277645</v>
+        <v>275699</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>219801</v>
+        <v>220148</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>192698</v>
+        <v>192858</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>150444</v>
+        <v>152371</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>453581</v>
+        <v>452868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>353981</v>
+        <v>357651</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>304899</v>
+        <v>304011</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>223388</v>
+        <v>221762</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>242220</v>
+        <v>242540</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>176774</v>
+        <v>173504</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>564369</v>
+        <v>560483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>415300</v>
+        <v>411355</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>366059</v>
+        <v>366881</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>285795</v>
+        <v>288265</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>300505</v>
+        <v>300064</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>221289</v>
+        <v>222223</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>650883</v>
+        <v>645301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>493583</v>
+        <v>491974</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>281498</v>
+        <v>283447</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>183583</v>
+        <v>187742</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>200624</v>
+        <v>200669</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>152186</v>
+        <v>153144</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>493350</v>
+        <v>496748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>350035</v>
+        <v>350073</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>336490</v>
+        <v>337786</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>245174</v>
+        <v>246400</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>250340</v>
+        <v>248865</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>197211</v>
+        <v>197283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>572638</v>
+        <v>576674</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>426134</v>
+        <v>427288</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>254371</v>
+        <v>254894</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>211903</v>
+        <v>212393</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>228170</v>
+        <v>231549</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>185115</v>
+        <v>185447</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>494670</v>
+        <v>496828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>415215</v>
+        <v>411506</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>309089</v>
+        <v>311447</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>267619</v>
+        <v>266954</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>288509</v>
+        <v>288923</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>230183</v>
+        <v>230151</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>577291</v>
+        <v>580787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>487263</v>
+        <v>487737</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
     </row>
     <row r="24">
